--- a/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF8409-3FC1-4E06-9314-51EFD09A5FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C22F7-AAA5-4FFC-A6DD-A689EAFF5290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1268">
   <si>
     <t>Document</t>
   </si>
@@ -2073,9 +2073,6 @@
   </si>
   <si>
     <t>11.1.2.5</t>
-  </si>
-  <si>
-    <t>Sign arbitrary data using the specified key container and confirm that the certificate can validate it</t>
   </si>
   <si>
     <t>PKIX.11</t>
@@ -5613,7 +5610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV473"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A355" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A355" workbookViewId="0">
       <selection activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
@@ -11756,10 +11753,10 @@
         <v>681</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E356" s="8"/>
       <c r="F356" s="8" t="s">
@@ -11771,10 +11768,10 @@
         <v>6</v>
       </c>
       <c r="B357" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="C357" s="11" t="s">
         <v>684</v>
-      </c>
-      <c r="C357" s="11" t="s">
-        <v>685</v>
       </c>
       <c r="D357" s="12"/>
       <c r="E357" s="11"/>
@@ -11785,13 +11782,13 @@
         <v>6</v>
       </c>
       <c r="B358" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C358" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="C358" s="8" t="s">
+      <c r="D358" s="9" t="s">
         <v>687</v>
-      </c>
-      <c r="D358" s="9" t="s">
-        <v>688</v>
       </c>
       <c r="E358" s="8"/>
       <c r="F358" s="8" t="s">
@@ -11803,13 +11800,13 @@
         <v>6</v>
       </c>
       <c r="B359" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="C359" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="C359" s="8" t="s">
+      <c r="D359" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="D359" s="9" t="s">
-        <v>691</v>
       </c>
       <c r="E359" s="8"/>
       <c r="F359" s="8" t="s">
@@ -11821,13 +11818,13 @@
         <v>6</v>
       </c>
       <c r="B360" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C360" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="C360" s="8" t="s">
+      <c r="D360" s="9" t="s">
         <v>693</v>
-      </c>
-      <c r="D360" s="9" t="s">
-        <v>694</v>
       </c>
       <c r="E360" s="8"/>
       <c r="F360" s="8" t="s">
@@ -11839,10 +11836,10 @@
         <v>6</v>
       </c>
       <c r="B361" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C361" s="11" t="s">
         <v>695</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>696</v>
       </c>
       <c r="D361" s="12"/>
       <c r="E361" s="11"/>
@@ -11853,13 +11850,13 @@
         <v>6</v>
       </c>
       <c r="B362" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C362" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="C362" s="8" t="s">
+      <c r="D362" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="D362" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="E362" s="8"/>
       <c r="F362" s="8" t="s">
@@ -11871,13 +11868,13 @@
         <v>6</v>
       </c>
       <c r="B363" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C363" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="C363" s="8" t="s">
+      <c r="D363" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="D363" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="E363" s="8"/>
       <c r="F363" s="8" t="s">
@@ -11889,10 +11886,10 @@
         <v>6</v>
       </c>
       <c r="B364" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C364" s="11" t="s">
         <v>703</v>
-      </c>
-      <c r="C364" s="11" t="s">
-        <v>704</v>
       </c>
       <c r="D364" s="12"/>
       <c r="E364" s="11"/>
@@ -11903,7 +11900,7 @@
         <v>6</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C365" s="8" t="s">
         <v>673</v>
@@ -11921,13 +11918,13 @@
         <v>6</v>
       </c>
       <c r="B366" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C366" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="C366" s="8" t="s">
+      <c r="D366" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="D366" s="9" t="s">
-        <v>708</v>
       </c>
       <c r="E366" s="18"/>
       <c r="F366" s="8" t="s">
@@ -11939,13 +11936,13 @@
         <v>6</v>
       </c>
       <c r="B367" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C367" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="C367" s="8" t="s">
-        <v>710</v>
-      </c>
       <c r="D367" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E367" s="8"/>
       <c r="F367" s="8" t="s">
@@ -11957,10 +11954,10 @@
         <v>6</v>
       </c>
       <c r="B368" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C368" s="8" t="s">
         <v>711</v>
-      </c>
-      <c r="C368" s="8" t="s">
-        <v>712</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>680</v>
@@ -11975,13 +11972,13 @@
         <v>6</v>
       </c>
       <c r="B369" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C369" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="C369" s="8" t="s">
+      <c r="D369" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="D369" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="E369" s="8"/>
       <c r="F369" s="8" t="s">
@@ -11993,10 +11990,10 @@
         <v>6</v>
       </c>
       <c r="B370" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="C370" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>717</v>
       </c>
       <c r="D370" s="12"/>
       <c r="E370" s="11"/>
@@ -12007,7 +12004,7 @@
         <v>6</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>649</v>
@@ -12021,7 +12018,7 @@
         <v>6</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C372" s="8" t="s">
         <v>651</v>
@@ -12039,10 +12036,10 @@
         <v>6</v>
       </c>
       <c r="B373" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C373" s="8" t="s">
         <v>720</v>
-      </c>
-      <c r="C373" s="8" t="s">
-        <v>721</v>
       </c>
       <c r="D373" s="10">
         <v>78.099999999999994</v>
@@ -12057,10 +12054,10 @@
         <v>6</v>
       </c>
       <c r="B374" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="C374" s="8" t="s">
         <v>722</v>
-      </c>
-      <c r="C374" s="8" t="s">
-        <v>723</v>
       </c>
       <c r="D374" s="10">
         <v>78.099999999999994</v>
@@ -12075,7 +12072,7 @@
         <v>6</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>657</v>
@@ -12089,10 +12086,10 @@
         <v>6</v>
       </c>
       <c r="B376" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C376" s="11" t="s">
         <v>725</v>
-      </c>
-      <c r="C376" s="11" t="s">
-        <v>726</v>
       </c>
       <c r="D376" s="12"/>
       <c r="E376" s="11"/>
@@ -12103,13 +12100,13 @@
         <v>6</v>
       </c>
       <c r="B377" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C377" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="C377" s="8" t="s">
+      <c r="D377" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="D377" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="E377" s="8"/>
       <c r="F377" s="8" t="s">
@@ -12121,13 +12118,13 @@
         <v>6</v>
       </c>
       <c r="B378" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C378" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="C378" s="8" t="s">
+      <c r="D378" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="D378" s="9" t="s">
-        <v>732</v>
       </c>
       <c r="E378" s="8"/>
       <c r="F378" s="8" t="s">
@@ -12139,13 +12136,13 @@
         <v>6</v>
       </c>
       <c r="B379" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C379" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="C379" s="8" t="s">
-        <v>734</v>
-      </c>
       <c r="D379" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E379" s="8"/>
       <c r="F379" s="8" t="s">
@@ -12157,13 +12154,13 @@
         <v>6</v>
       </c>
       <c r="B380" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C380" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="C380" s="8" t="s">
-        <v>736</v>
-      </c>
       <c r="D380" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E380" s="8"/>
       <c r="F380" s="8" t="s">
@@ -12175,13 +12172,13 @@
         <v>6</v>
       </c>
       <c r="B381" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="C381" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="C381" s="8" t="s">
-        <v>738</v>
-      </c>
       <c r="D381" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E381" s="8"/>
       <c r="F381" s="8" t="s">
@@ -12193,10 +12190,10 @@
         <v>6</v>
       </c>
       <c r="B382" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C382" s="8" t="s">
         <v>739</v>
-      </c>
-      <c r="C382" s="8" t="s">
-        <v>740</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>669</v>
@@ -12211,10 +12208,10 @@
         <v>6</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D383" s="12"/>
       <c r="E383" s="11"/>
@@ -12225,13 +12222,13 @@
         <v>6</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C384" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="D384" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="D384" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="E384" s="8"/>
       <c r="F384" s="8" t="s">
@@ -12243,13 +12240,13 @@
         <v>6</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C385" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D385" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="D385" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="E385" s="8"/>
       <c r="F385" s="8" t="s">
@@ -12261,10 +12258,10 @@
         <v>6</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D386" s="12"/>
       <c r="E386" s="11"/>
@@ -12275,7 +12272,7 @@
         <v>6</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C387" s="8" t="s">
         <v>673</v>
@@ -12293,13 +12290,13 @@
         <v>6</v>
       </c>
       <c r="B388" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C388" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="C388" s="8" t="s">
-        <v>747</v>
-      </c>
       <c r="D388" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E388" s="18"/>
       <c r="F388" s="8" t="s">
@@ -12311,13 +12308,13 @@
         <v>6</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E389" s="8"/>
       <c r="F389" s="8" t="s">
@@ -12329,10 +12326,10 @@
         <v>6</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>680</v>
@@ -12347,13 +12344,13 @@
         <v>6</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C391" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D391" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="D391" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="E391" s="8"/>
       <c r="F391" s="8" t="s">
@@ -12365,10 +12362,10 @@
         <v>6</v>
       </c>
       <c r="B392" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C392" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>752</v>
       </c>
       <c r="D392" s="12"/>
       <c r="E392" s="11"/>
@@ -12379,7 +12376,7 @@
         <v>6</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C393" s="11" t="s">
         <v>649</v>
@@ -12393,10 +12390,10 @@
         <v>6</v>
       </c>
       <c r="B394" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C394" s="8" t="s">
         <v>754</v>
-      </c>
-      <c r="C394" s="8" t="s">
-        <v>755</v>
       </c>
       <c r="D394" s="10">
         <v>78.3</v>
@@ -12411,10 +12408,10 @@
         <v>6</v>
       </c>
       <c r="B395" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C395" s="8" t="s">
         <v>756</v>
-      </c>
-      <c r="C395" s="8" t="s">
-        <v>757</v>
       </c>
       <c r="D395" s="10">
         <v>78.099999999999994</v>
@@ -12429,10 +12426,10 @@
         <v>6</v>
       </c>
       <c r="B396" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C396" s="8" t="s">
         <v>758</v>
-      </c>
-      <c r="C396" s="8" t="s">
-        <v>759</v>
       </c>
       <c r="D396" s="10">
         <v>78.099999999999994</v>
@@ -12447,7 +12444,7 @@
         <v>6</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C397" s="11" t="s">
         <v>657</v>
@@ -12461,10 +12458,10 @@
         <v>6</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D398" s="12"/>
       <c r="E398" s="11"/>
@@ -12475,13 +12472,13 @@
         <v>6</v>
       </c>
       <c r="B399" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="C399" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="C399" s="8" t="s">
+      <c r="D399" s="9" t="s">
         <v>763</v>
-      </c>
-      <c r="D399" s="9" t="s">
-        <v>764</v>
       </c>
       <c r="E399" s="8"/>
       <c r="F399" s="8" t="s">
@@ -12493,13 +12490,13 @@
         <v>6</v>
       </c>
       <c r="B400" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C400" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="C400" s="8" t="s">
+      <c r="D400" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="D400" s="9" t="s">
-        <v>767</v>
       </c>
       <c r="E400" s="8"/>
       <c r="F400" s="8" t="s">
@@ -12511,10 +12508,10 @@
         <v>6</v>
       </c>
       <c r="B401" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C401" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="C401" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>663</v>
@@ -12529,13 +12526,13 @@
         <v>6</v>
       </c>
       <c r="B402" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C402" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="C402" s="8" t="s">
-        <v>771</v>
-      </c>
       <c r="D402" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E402" s="8"/>
       <c r="F402" s="8" t="s">
@@ -12547,13 +12544,13 @@
         <v>6</v>
       </c>
       <c r="B403" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="C403" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="C403" s="8" t="s">
-        <v>773</v>
-      </c>
       <c r="D403" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E403" s="8"/>
       <c r="F403" s="8" t="s">
@@ -12565,10 +12562,10 @@
         <v>6</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>669</v>
@@ -12583,10 +12580,10 @@
         <v>6</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D405" s="12"/>
       <c r="E405" s="11"/>
@@ -12597,13 +12594,13 @@
         <v>6</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C406" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="D406" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="D406" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="E406" s="8"/>
       <c r="F406" s="8" t="s">
@@ -12615,13 +12612,13 @@
         <v>6</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C407" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D407" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="D407" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="E407" s="8"/>
       <c r="F407" s="8" t="s">
@@ -12633,10 +12630,10 @@
         <v>6</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D408" s="12"/>
       <c r="E408" s="11"/>
@@ -12647,7 +12644,7 @@
         <v>6</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C409" s="8" t="s">
         <v>673</v>
@@ -12665,13 +12662,13 @@
         <v>6</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E410" s="18"/>
       <c r="F410" s="8" t="s">
@@ -12683,13 +12680,13 @@
         <v>6</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E411" s="8"/>
       <c r="F411" s="8" t="s">
@@ -12701,10 +12698,10 @@
         <v>6</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>680</v>
@@ -12719,13 +12716,13 @@
         <v>6</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C413" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D413" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="D413" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="E413" s="8"/>
       <c r="F413" s="8" t="s">
@@ -12737,10 +12734,10 @@
         <v>6</v>
       </c>
       <c r="B414" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="C414" s="7" t="s">
         <v>784</v>
-      </c>
-      <c r="C414" s="7" t="s">
-        <v>785</v>
       </c>
       <c r="D414" s="12"/>
       <c r="E414" s="11"/>
@@ -12751,7 +12748,7 @@
         <v>6</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C415" s="11" t="s">
         <v>649</v>
@@ -12765,10 +12762,10 @@
         <v>6</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D416" s="10">
         <v>78.3</v>
@@ -12783,10 +12780,10 @@
         <v>6</v>
       </c>
       <c r="B417" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="C417" s="8" t="s">
         <v>788</v>
-      </c>
-      <c r="C417" s="8" t="s">
-        <v>789</v>
       </c>
       <c r="D417" s="10">
         <v>78.099999999999994</v>
@@ -12801,10 +12798,10 @@
         <v>6</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D418" s="10">
         <v>78.099999999999994</v>
@@ -12819,7 +12816,7 @@
         <v>6</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C419" s="11" t="s">
         <v>657</v>
@@ -12833,10 +12830,10 @@
         <v>6</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D420" s="12"/>
       <c r="E420" s="11"/>
@@ -12847,13 +12844,13 @@
         <v>6</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C421" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="D421" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="D421" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="E421" s="8"/>
       <c r="F421" s="8" t="s">
@@ -12865,10 +12862,10 @@
         <v>6</v>
       </c>
       <c r="B422" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="C422" s="8" t="s">
         <v>794</v>
-      </c>
-      <c r="C422" s="8" t="s">
-        <v>795</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>660</v>
@@ -12883,10 +12880,10 @@
         <v>6</v>
       </c>
       <c r="B423" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="C423" s="8" t="s">
         <v>796</v>
-      </c>
-      <c r="C423" s="8" t="s">
-        <v>797</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>663</v>
@@ -12901,10 +12898,10 @@
         <v>6</v>
       </c>
       <c r="B424" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="C424" s="8" t="s">
         <v>798</v>
-      </c>
-      <c r="C424" s="8" t="s">
-        <v>799</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>669</v>
@@ -12919,10 +12916,10 @@
         <v>6</v>
       </c>
       <c r="B425" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="C425" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="C425" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="D425" s="12"/>
       <c r="E425" s="11"/>
@@ -12933,13 +12930,13 @@
         <v>6</v>
       </c>
       <c r="B426" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="C426" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="C426" s="8" t="s">
+      <c r="D426" s="9" t="s">
         <v>803</v>
-      </c>
-      <c r="D426" s="9" t="s">
-        <v>804</v>
       </c>
       <c r="E426" s="8"/>
       <c r="F426" s="8" t="s">
@@ -12951,13 +12948,13 @@
         <v>6</v>
       </c>
       <c r="B427" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C427" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="C427" s="8" t="s">
+      <c r="D427" s="9" t="s">
         <v>806</v>
-      </c>
-      <c r="D427" s="9" t="s">
-        <v>807</v>
       </c>
       <c r="E427" s="8"/>
       <c r="F427" s="8" t="s">
@@ -12969,13 +12966,13 @@
         <v>6</v>
       </c>
       <c r="B428" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C428" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="C428" s="8" t="s">
-        <v>809</v>
-      </c>
       <c r="D428" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E428" s="8"/>
       <c r="F428" s="8" t="s">
@@ -12987,10 +12984,10 @@
         <v>6</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D429" s="12"/>
       <c r="E429" s="11"/>
@@ -13001,7 +12998,7 @@
         <v>6</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C430" s="8" t="s">
         <v>673</v>
@@ -13019,10 +13016,10 @@
         <v>6</v>
       </c>
       <c r="B431" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="C431" s="8" t="s">
         <v>812</v>
-      </c>
-      <c r="C431" s="8" t="s">
-        <v>813</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>677</v>
@@ -13037,13 +13034,13 @@
         <v>6</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D432" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E432" s="8"/>
       <c r="F432" s="8" t="s">
@@ -13055,13 +13052,13 @@
         <v>6</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D433" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E433" s="8"/>
       <c r="F433" s="8" t="s">
@@ -13073,13 +13070,13 @@
         <v>6</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D434" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E434" s="8"/>
       <c r="F434" s="8" t="s">
@@ -13091,10 +13088,10 @@
         <v>6</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D435" s="12"/>
       <c r="E435" s="11"/>
@@ -13105,13 +13102,13 @@
         <v>6</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C436" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D436" s="9" t="s">
         <v>687</v>
-      </c>
-      <c r="D436" s="9" t="s">
-        <v>688</v>
       </c>
       <c r="E436" s="8"/>
       <c r="F436" s="8" t="s">
@@ -13123,13 +13120,13 @@
         <v>6</v>
       </c>
       <c r="B437" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="C437" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="C437" s="8" t="s">
+      <c r="D437" s="9" t="s">
         <v>820</v>
-      </c>
-      <c r="D437" s="9" t="s">
-        <v>821</v>
       </c>
       <c r="E437" s="8"/>
       <c r="F437" s="8" t="s">
@@ -13141,13 +13138,13 @@
         <v>6</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D438" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E438" s="8"/>
       <c r="F438" s="8" t="s">
@@ -13159,10 +13156,10 @@
         <v>6</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D439" s="12"/>
       <c r="E439" s="11"/>
@@ -13173,13 +13170,13 @@
         <v>6</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C440" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="D440" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="D440" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="E440" s="8"/>
       <c r="F440" s="8" t="s">
@@ -13191,13 +13188,13 @@
         <v>6</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C441" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D441" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="D441" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="E441" s="8"/>
       <c r="F441" s="8" t="s">
@@ -13209,10 +13206,10 @@
         <v>6</v>
       </c>
       <c r="B442" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="C442" s="11" t="s">
         <v>826</v>
-      </c>
-      <c r="C442" s="11" t="s">
-        <v>827</v>
       </c>
       <c r="D442" s="12"/>
       <c r="E442" s="11"/>
@@ -13223,13 +13220,13 @@
         <v>6</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C443" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D443" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="D443" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="E443" s="8"/>
       <c r="F443" s="8" t="s">
@@ -13241,10 +13238,10 @@
         <v>6</v>
       </c>
       <c r="B444" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C444" s="7" t="s">
         <v>829</v>
-      </c>
-      <c r="C444" s="7" t="s">
-        <v>830</v>
       </c>
       <c r="D444" s="12"/>
       <c r="E444" s="11"/>
@@ -13255,10 +13252,10 @@
         <v>6</v>
       </c>
       <c r="B445" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="C445" s="8" t="s">
         <v>831</v>
-      </c>
-      <c r="C445" s="8" t="s">
-        <v>832</v>
       </c>
       <c r="D445" s="10"/>
       <c r="E445" s="8"/>
@@ -13271,7 +13268,7 @@
         <v>6</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C446" s="8" t="s">
         <v>649</v>
@@ -13287,7 +13284,7 @@
         <v>6</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C447" s="8" t="s">
         <v>657</v>
@@ -13303,10 +13300,10 @@
         <v>6</v>
       </c>
       <c r="B448" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C448" s="7" t="s">
         <v>835</v>
-      </c>
-      <c r="C448" s="7" t="s">
-        <v>836</v>
       </c>
       <c r="D448" s="12"/>
       <c r="E448" s="7"/>
@@ -13317,10 +13314,10 @@
         <v>6</v>
       </c>
       <c r="B449" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C449" s="8" t="s">
         <v>837</v>
-      </c>
-      <c r="C449" s="8" t="s">
-        <v>838</v>
       </c>
       <c r="D449" s="10"/>
       <c r="E449" s="8"/>
@@ -13333,7 +13330,7 @@
         <v>6</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C450" s="8" t="s">
         <v>649</v>
@@ -13349,10 +13346,10 @@
         <v>6</v>
       </c>
       <c r="B451" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="C451" s="7" t="s">
         <v>840</v>
-      </c>
-      <c r="C451" s="7" t="s">
-        <v>841</v>
       </c>
       <c r="D451" s="12"/>
       <c r="E451" s="11"/>
@@ -13363,7 +13360,7 @@
         <v>6</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C452" s="11" t="s">
         <v>649</v>
@@ -13377,10 +13374,10 @@
         <v>6</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D453" s="10">
         <v>78.3</v>
@@ -13395,10 +13392,10 @@
         <v>6</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D454" s="10">
         <v>78.099999999999994</v>
@@ -13413,10 +13410,10 @@
         <v>6</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D455" s="10">
         <v>78.099999999999994</v>
@@ -13431,7 +13428,7 @@
         <v>6</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C456" s="11" t="s">
         <v>657</v>
@@ -13445,10 +13442,10 @@
         <v>6</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D457" s="12"/>
       <c r="E457" s="11"/>
@@ -13459,10 +13456,10 @@
         <v>6</v>
       </c>
       <c r="B458" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C458" s="8" t="s">
         <v>848</v>
-      </c>
-      <c r="C458" s="8" t="s">
-        <v>849</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>660</v>
@@ -13477,10 +13474,10 @@
         <v>6</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>663</v>
@@ -13495,13 +13492,13 @@
         <v>6</v>
       </c>
       <c r="B460" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="C460" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="C460" s="8" t="s">
+      <c r="D460" s="9" t="s">
         <v>852</v>
-      </c>
-      <c r="D460" s="9" t="s">
-        <v>853</v>
       </c>
       <c r="E460" s="8"/>
       <c r="F460" s="8" t="s">
@@ -13513,13 +13510,13 @@
         <v>6</v>
       </c>
       <c r="B461" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="C461" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="C461" s="8" t="s">
-        <v>855</v>
-      </c>
       <c r="D461" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E461" s="8"/>
       <c r="F461" s="8" t="s">
@@ -13531,10 +13528,10 @@
         <v>6</v>
       </c>
       <c r="B462" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="C462" s="8" t="s">
         <v>856</v>
-      </c>
-      <c r="C462" s="8" t="s">
-        <v>857</v>
       </c>
       <c r="D462" s="10"/>
       <c r="E462" s="8"/>
@@ -13547,10 +13544,10 @@
         <v>6</v>
       </c>
       <c r="B463" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C463" s="8" t="s">
         <v>858</v>
-      </c>
-      <c r="C463" s="8" t="s">
-        <v>859</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>669</v>
@@ -13565,13 +13562,13 @@
         <v>6</v>
       </c>
       <c r="B464" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="C464" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="C464" s="8" t="s">
-        <v>861</v>
-      </c>
       <c r="D464" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E464" s="8"/>
       <c r="F464" s="8" t="s">
@@ -13583,10 +13580,10 @@
         <v>6</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D465" s="12"/>
       <c r="E465" s="11"/>
@@ -13597,13 +13594,13 @@
         <v>6</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C466" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="D466" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="D466" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="E466" s="8"/>
       <c r="F466" s="8" t="s">
@@ -13615,13 +13612,13 @@
         <v>6</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C467" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D467" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="D467" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="E467" s="8"/>
       <c r="F467" s="8" t="s">
@@ -13633,10 +13630,10 @@
         <v>6</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D468" s="12"/>
       <c r="E468" s="11"/>
@@ -13647,7 +13644,7 @@
         <v>6</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C469" s="8" t="s">
         <v>673</v>
@@ -13665,10 +13662,10 @@
         <v>6</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>677</v>
@@ -13683,13 +13680,13 @@
         <v>6</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D471" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E471" s="8"/>
       <c r="F471" s="8" t="s">
@@ -13701,10 +13698,10 @@
         <v>6</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D472" s="9" t="s">
         <v>680</v>
@@ -13719,13 +13716,13 @@
         <v>6</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C473" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D473" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="D473" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="E473" s="8"/>
       <c r="F473" s="8" t="s">
@@ -13759,25 +13756,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -13785,17 +13782,17 @@
         <v>15</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>878</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>879</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>880</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -13804,17 +13801,17 @@
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -13823,17 +13820,17 @@
         <v>22</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -13842,36 +13839,36 @@
         <v>25</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>878</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>887</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>888</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G6" s="13"/>
     </row>
@@ -13940,25 +13937,25 @@
   <sheetData>
     <row r="1" spans="1:255" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
       <c r="H1" s="36"/>
       <c r="I1" s="37"/>
@@ -14214,17 +14211,17 @@
         <v>28</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>889</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>890</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>891</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="39"/>
@@ -14481,17 +14478,17 @@
         <v>31</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="39"/>
@@ -14748,17 +14745,17 @@
         <v>34</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="39"/>
@@ -15015,17 +15012,17 @@
         <v>37</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="39"/>
@@ -15282,17 +15279,17 @@
         <v>40</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="39"/>
@@ -15549,17 +15546,17 @@
         <v>46</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="39"/>
@@ -15813,20 +15810,20 @@
     </row>
     <row r="8" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>899</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>900</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="39"/>
@@ -16083,17 +16080,17 @@
         <v>57</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>901</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>902</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="39"/>
@@ -16350,17 +16347,17 @@
         <v>101</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>100</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="39"/>
@@ -16617,17 +16614,17 @@
         <v>60</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>155</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="39"/>
@@ -16884,17 +16881,17 @@
         <v>66</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="39"/>
@@ -17151,17 +17148,17 @@
         <v>69</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>906</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>907</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="39"/>
@@ -17418,17 +17415,17 @@
         <v>83</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>908</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>909</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="39"/>
@@ -17685,17 +17682,17 @@
         <v>86</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="39"/>
@@ -17952,17 +17949,17 @@
         <v>107</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>106</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="39"/>
@@ -18219,19 +18216,19 @@
         <v>110</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>109</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="39"/>
@@ -18488,17 +18485,17 @@
         <v>104</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>103</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="39"/>
@@ -18752,20 +18749,20 @@
     </row>
     <row r="19" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>917</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>918</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="40"/>
@@ -19022,17 +19019,17 @@
         <v>132</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>131</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="39"/>
@@ -19289,17 +19286,17 @@
         <v>135</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>134</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="39"/>
@@ -19556,17 +19553,17 @@
         <v>138</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>137</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="39"/>
@@ -19823,17 +19820,17 @@
         <v>141</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="39"/>
@@ -20090,17 +20087,17 @@
         <v>43</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="39"/>
@@ -20357,17 +20354,17 @@
         <v>115</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>924</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>925</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>152</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="39"/>
@@ -20624,17 +20621,17 @@
         <v>201</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>926</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>927</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="39"/>
@@ -20891,17 +20888,17 @@
         <v>204</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>203</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="39"/>
@@ -21158,17 +21155,17 @@
         <v>168</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>929</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>930</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>167</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="39"/>
@@ -21425,17 +21422,17 @@
         <v>171</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>931</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>932</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="39"/>
@@ -21692,17 +21689,17 @@
         <v>180</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>933</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>934</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="39"/>
@@ -21959,17 +21956,17 @@
         <v>183</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>935</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>936</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="39"/>
@@ -22226,17 +22223,17 @@
         <v>186</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>937</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>938</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="39"/>
@@ -22493,17 +22490,17 @@
         <v>198</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>940</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>941</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="39"/>
@@ -22760,17 +22757,17 @@
         <v>261</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>942</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>943</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>260</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="39"/>
@@ -23027,17 +23024,17 @@
         <v>264</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>944</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>945</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="39"/>
@@ -23294,17 +23291,17 @@
         <v>270</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>269</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="39"/>
@@ -23561,20 +23558,20 @@
         <v>273</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>272</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="30"/>
@@ -23830,17 +23827,17 @@
         <v>605</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>604</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="39"/>
@@ -24097,17 +24094,17 @@
         <v>299</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>950</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>951</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>298</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="39"/>
@@ -24364,17 +24361,17 @@
         <v>284</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>952</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>953</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="39"/>
@@ -24631,17 +24628,17 @@
         <v>287</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>954</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>955</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="39"/>
@@ -24898,17 +24895,17 @@
         <v>296</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>956</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>957</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="39"/>
@@ -25165,17 +25162,17 @@
         <v>63</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C43" s="43" t="s">
+        <v>957</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>958</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>959</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="39"/>
@@ -25432,17 +25429,17 @@
         <v>71</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C44" s="43" t="s">
+        <v>959</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>960</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>961</v>
       </c>
       <c r="E44" s="43"/>
       <c r="F44" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G44" s="43"/>
       <c r="H44" s="39"/>
@@ -25699,17 +25696,17 @@
         <v>74</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C45" s="43" t="s">
+        <v>961</v>
+      </c>
+      <c r="D45" s="43" t="s">
         <v>962</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>963</v>
       </c>
       <c r="E45" s="43"/>
       <c r="F45" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="39"/>
@@ -25966,17 +25963,17 @@
         <v>77</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C46" s="43" t="s">
+        <v>963</v>
+      </c>
+      <c r="D46" s="43" t="s">
         <v>964</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>965</v>
       </c>
       <c r="E46" s="43"/>
       <c r="F46" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="39"/>
@@ -26233,17 +26230,17 @@
         <v>80</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C47" s="43" t="s">
+        <v>965</v>
+      </c>
+      <c r="D47" s="43" t="s">
         <v>966</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>967</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G47" s="43"/>
       <c r="H47" s="39"/>
@@ -26500,17 +26497,17 @@
         <v>89</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C48" s="43" t="s">
+        <v>967</v>
+      </c>
+      <c r="D48" s="43" t="s">
         <v>968</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>969</v>
       </c>
       <c r="E48" s="43"/>
       <c r="F48" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="39"/>
@@ -26767,17 +26764,17 @@
         <v>92</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C49" s="43" t="s">
+        <v>969</v>
+      </c>
+      <c r="D49" s="43" t="s">
         <v>970</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>971</v>
       </c>
       <c r="E49" s="43"/>
       <c r="F49" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="39"/>
@@ -27034,17 +27031,17 @@
         <v>95</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C50" s="43" t="s">
+        <v>971</v>
+      </c>
+      <c r="D50" s="43" t="s">
         <v>972</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>973</v>
       </c>
       <c r="E50" s="43"/>
       <c r="F50" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="39"/>
@@ -27301,17 +27298,17 @@
         <v>98</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C51" s="43" t="s">
+        <v>973</v>
+      </c>
+      <c r="D51" s="43" t="s">
         <v>974</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>975</v>
       </c>
       <c r="E51" s="43"/>
       <c r="F51" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G51" s="43"/>
       <c r="H51" s="39"/>
@@ -27568,17 +27565,17 @@
         <v>174</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D52" s="43" t="s">
         <v>173</v>
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G52" s="43"/>
       <c r="H52" s="39"/>
@@ -27835,17 +27832,17 @@
         <v>177</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C53" s="43" t="s">
+        <v>976</v>
+      </c>
+      <c r="D53" s="43" t="s">
         <v>977</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>978</v>
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G53" s="43"/>
       <c r="H53" s="39"/>
@@ -28102,17 +28099,17 @@
         <v>267</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C54" s="43" t="s">
+        <v>978</v>
+      </c>
+      <c r="D54" s="43" t="s">
         <v>979</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>980</v>
       </c>
       <c r="E54" s="43"/>
       <c r="F54" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G54" s="43"/>
       <c r="H54" s="39"/>
@@ -28369,17 +28366,17 @@
         <v>290</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>289</v>
       </c>
       <c r="E55" s="43"/>
       <c r="F55" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G55" s="43"/>
       <c r="H55" s="39"/>
@@ -28636,17 +28633,17 @@
         <v>129</v>
       </c>
       <c r="B56" s="43" t="s">
+        <v>981</v>
+      </c>
+      <c r="C56" s="43" t="s">
         <v>982</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="D56" s="13" t="s">
         <v>983</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>984</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="44"/>
@@ -28925,25 +28922,25 @@
   <sheetData>
     <row r="1" spans="1:255" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
       <c r="H1" s="48"/>
       <c r="I1" s="49"/>
@@ -29196,20 +29193,20 @@
     </row>
     <row r="2" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>985</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>986</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>987</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>323</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="39"/>
@@ -29463,20 +29460,20 @@
     </row>
     <row r="3" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>988</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>989</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>325</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="39"/>
@@ -29730,20 +29727,20 @@
     </row>
     <row r="4" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>990</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>991</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>327</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="39"/>
@@ -29997,20 +29994,20 @@
     </row>
     <row r="5" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>992</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>993</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>331</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="39"/>
@@ -30264,20 +30261,20 @@
     </row>
     <row r="6" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>995</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>996</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="39"/>
@@ -30531,20 +30528,20 @@
     </row>
     <row r="7" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>997</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>998</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>999</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="39"/>
@@ -30798,20 +30795,20 @@
     </row>
     <row r="8" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>1000</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>1001</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>1002</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="39"/>
@@ -31065,20 +31062,20 @@
     </row>
     <row r="9" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>1003</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>1004</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1005</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="39"/>
@@ -31332,20 +31329,20 @@
     </row>
     <row r="10" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>1006</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>1007</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>412</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="39"/>
@@ -31599,20 +31596,20 @@
     </row>
     <row r="11" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1008</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>1009</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>414</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="39"/>
@@ -31866,20 +31863,20 @@
     </row>
     <row r="12" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>1011</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1012</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="39"/>
@@ -32133,20 +32130,20 @@
     </row>
     <row r="13" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>1013</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>1014</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>418</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="39"/>
@@ -32400,20 +32397,20 @@
     </row>
     <row r="14" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>1015</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>1016</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>421</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="39"/>
@@ -32667,20 +32664,20 @@
     </row>
     <row r="15" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>1017</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>1018</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>423</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="39"/>
@@ -32934,20 +32931,20 @@
     </row>
     <row r="16" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>1019</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1020</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>425</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="39"/>
@@ -33201,20 +33198,20 @@
     </row>
     <row r="17" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>1021</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>1022</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1023</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="39"/>
@@ -33468,20 +33465,20 @@
     </row>
     <row r="18" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>1024</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>1025</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>429</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="39"/>
@@ -33735,20 +33732,20 @@
     </row>
     <row r="19" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>1026</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>1027</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>431</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="39"/>
@@ -34002,20 +33999,20 @@
     </row>
     <row r="20" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>1028</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1029</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>433</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="39"/>
@@ -34269,20 +34266,20 @@
     </row>
     <row r="21" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>1031</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1032</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="39"/>
@@ -34536,20 +34533,20 @@
     </row>
     <row r="22" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1033</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>1034</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>439</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="39"/>
@@ -34803,20 +34800,20 @@
     </row>
     <row r="23" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>1035</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>1036</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>441</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="39"/>
@@ -35070,20 +35067,20 @@
     </row>
     <row r="24" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>1037</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>1038</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>443</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="39"/>
@@ -35337,20 +35334,20 @@
     </row>
     <row r="25" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>1040</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>1041</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="39"/>
@@ -35604,20 +35601,20 @@
     </row>
     <row r="26" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>1042</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>1043</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>449</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="39"/>
@@ -35871,20 +35868,20 @@
     </row>
     <row r="27" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>1044</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>1045</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>1046</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="39"/>
@@ -36138,20 +36135,20 @@
     </row>
     <row r="28" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>1047</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>1048</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>453</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="39"/>
@@ -36405,20 +36402,20 @@
     </row>
     <row r="29" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>1049</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>1050</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>455</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="39"/>
@@ -36672,20 +36669,20 @@
     </row>
     <row r="30" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>1051</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>1052</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>457</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="39"/>
@@ -36939,20 +36936,20 @@
     </row>
     <row r="31" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>1053</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>1054</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>1055</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="39"/>
@@ -37206,20 +37203,20 @@
     </row>
     <row r="32" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>1056</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>1057</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>1058</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="39"/>
@@ -37473,20 +37470,20 @@
     </row>
     <row r="33" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>1059</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>1060</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>1061</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="39"/>
@@ -37740,20 +37737,20 @@
     </row>
     <row r="34" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>1063</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>1064</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="39"/>
@@ -38007,20 +38004,20 @@
     </row>
     <row r="35" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>1065</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>1066</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>1067</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="39"/>
@@ -38274,20 +38271,20 @@
     </row>
     <row r="36" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>1068</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>1069</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>1070</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="39"/>
@@ -38541,20 +38538,20 @@
     </row>
     <row r="37" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>1072</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>1073</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="39"/>
@@ -38808,20 +38805,20 @@
     </row>
     <row r="38" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>1074</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>1075</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>1076</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="39"/>
@@ -39075,20 +39072,20 @@
     </row>
     <row r="39" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>1077</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>1078</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>1079</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="39"/>
@@ -39342,19 +39339,19 @@
     </row>
     <row r="40" spans="1:255" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>1080</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>1081</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>1082</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>1083</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -39609,16 +39606,16 @@
     </row>
     <row r="41" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>1084</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>1085</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>1086</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -39874,16 +39871,16 @@
     </row>
     <row r="42" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>1087</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>1088</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>1089</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -40139,19 +40136,19 @@
     </row>
     <row r="43" spans="1:255" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>1090</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>1091</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>1092</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>1093</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -40406,19 +40403,19 @@
     </row>
     <row r="44" spans="1:255" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>1095</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>1096</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>1097</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -40673,19 +40670,19 @@
     </row>
     <row r="45" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>1098</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>1100</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>1101</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -40940,16 +40937,16 @@
     </row>
     <row r="46" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>1102</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>1103</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>1104</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -41205,16 +41202,16 @@
     </row>
     <row r="47" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>1105</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>1106</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>1107</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
@@ -41470,16 +41467,16 @@
     </row>
     <row r="48" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>1108</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>1109</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>1110</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -41735,16 +41732,16 @@
     </row>
     <row r="49" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>1111</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>1112</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>1113</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -42000,16 +41997,16 @@
     </row>
     <row r="50" spans="1:255" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>1114</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>1115</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>1116</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -42292,25 +42289,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -42318,17 +42315,17 @@
         <v>503</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1117</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1118</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1119</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -42337,17 +42334,17 @@
         <v>506</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>1120</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1121</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -42356,17 +42353,17 @@
         <v>509</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>1122</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1123</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -42375,17 +42372,17 @@
         <v>524</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>1124</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>1125</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G5" s="13"/>
     </row>
@@ -42394,17 +42391,17 @@
         <v>512</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>1126</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1127</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G6" s="13"/>
     </row>
@@ -42413,17 +42410,17 @@
         <v>515</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>1128</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>1129</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G7" s="13"/>
     </row>
@@ -42432,17 +42429,17 @@
         <v>518</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>1130</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>1131</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G8" s="13"/>
     </row>
@@ -42451,17 +42448,17 @@
         <v>521</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>1132</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1133</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G9" s="13"/>
     </row>
@@ -42470,17 +42467,17 @@
         <v>557</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>1134</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>1135</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G10" s="13"/>
     </row>
@@ -42489,17 +42486,17 @@
         <v>609</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>1136</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>1137</v>
-      </c>
       <c r="D11" s="13" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G11" s="43"/>
     </row>
@@ -42508,17 +42505,17 @@
         <v>530</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>1138</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1139</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G12" s="13"/>
     </row>
@@ -42527,17 +42524,17 @@
         <v>533</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>1140</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>1141</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G13" s="13"/>
     </row>
@@ -42546,17 +42543,17 @@
         <v>536</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>1142</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>1143</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G14" s="13"/>
     </row>
@@ -42565,17 +42562,17 @@
         <v>539</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>572</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G15" s="13"/>
     </row>
@@ -42584,22 +42581,22 @@
         <v>575</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>1145</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>1146</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="F16" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>1147</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -42607,22 +42604,22 @@
         <v>578</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>1149</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>1150</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>1151</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42630,17 +42627,17 @@
         <v>612</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>611</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G18" s="13"/>
     </row>
@@ -42649,17 +42646,17 @@
         <v>615</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>614</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G19" s="13"/>
     </row>
@@ -42668,17 +42665,17 @@
         <v>618</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>1155</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>1156</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G20" s="13"/>
     </row>
@@ -42687,36 +42684,36 @@
         <v>621</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>1157</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1158</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1159</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>1160</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>1161</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G22" s="13"/>
     </row>
@@ -42725,10 +42722,10 @@
         <v>562</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>561</v>
@@ -42739,16 +42736,16 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C24" s="43" t="s">
         <v>1163</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C24" s="43" t="s">
+      <c r="D24" s="43" t="s">
         <v>1164</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>1165</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
@@ -42759,13 +42756,13 @@
         <v>527</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C25" s="43" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>1166</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>1167</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43"/>
@@ -42773,16 +42770,16 @@
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>1168</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C26" s="43" t="s">
+      <c r="D26" s="43" t="s">
         <v>1169</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>1170</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
@@ -42790,16 +42787,16 @@
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C27" s="43" t="s">
         <v>1171</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C27" s="43" t="s">
+      <c r="D27" s="43" t="s">
         <v>1172</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>1173</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43"/>
@@ -42807,16 +42804,16 @@
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C28" s="43" t="s">
         <v>1174</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C28" s="43" t="s">
+      <c r="D28" s="43" t="s">
         <v>1175</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>1176</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
@@ -42824,16 +42821,16 @@
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>1177</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C29" s="43" t="s">
+      <c r="D29" s="43" t="s">
         <v>1178</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>1179</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="43"/>
@@ -42841,16 +42838,16 @@
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>1180</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C30" s="43" t="s">
+      <c r="D30" s="43" t="s">
         <v>1181</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>1182</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="43"/>
@@ -42883,81 +42880,81 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1183</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>1184</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1185</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1186</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1187</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>1188</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1189</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1190</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>1191</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1192</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -43028,7 +43025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IU29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43044,25 +43043,25 @@
   <sheetData>
     <row r="1" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
       <c r="H1" s="48"/>
       <c r="I1" s="49"/>
@@ -43315,20 +43314,20 @@
     </row>
     <row r="2" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1193</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>1194</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1195</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1196</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="39"/>
@@ -43582,20 +43581,20 @@
     </row>
     <row r="3" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>1197</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1198</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="39"/>
@@ -43852,17 +43851,17 @@
         <v>660</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>1199</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1200</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="39"/>
@@ -44119,17 +44118,17 @@
         <v>663</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>1201</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>1202</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="39"/>
@@ -44386,17 +44385,17 @@
         <v>666</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>1203</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1204</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="39"/>
@@ -44653,22 +44652,22 @@
         <v>669</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>1205</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>1206</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>1207</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>1208</v>
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="30"/>
@@ -44924,17 +44923,17 @@
         <v>674</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>1209</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>1210</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="39"/>
@@ -45191,17 +45190,17 @@
         <v>677</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>1211</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1212</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="39"/>
@@ -45455,20 +45454,20 @@
     </row>
     <row r="10" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>1213</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>1214</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="39"/>
@@ -45722,20 +45721,20 @@
     </row>
     <row r="11" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1215</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>1216</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>1217</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="39"/>
@@ -45989,20 +45988,20 @@
     </row>
     <row r="12" spans="1:255" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>682</v>
+        <v>733</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="39"/>
@@ -46256,20 +46255,20 @@
     </row>
     <row r="13" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>1219</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>1220</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>1221</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="39"/>
@@ -46523,23 +46522,23 @@
     </row>
     <row r="14" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>1222</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>1223</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="30"/>
@@ -46792,20 +46791,20 @@
     </row>
     <row r="15" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>1225</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>1226</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="39"/>
@@ -47059,20 +47058,20 @@
     </row>
     <row r="16" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>1227</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>1228</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="39"/>
@@ -47326,20 +47325,20 @@
     </row>
     <row r="17" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>1229</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1230</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="39"/>
@@ -47593,20 +47592,20 @@
     </row>
     <row r="18" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>1231</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>1232</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="39"/>
@@ -47860,25 +47859,25 @@
     </row>
     <row r="19" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>1233</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>1234</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>1235</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>1236</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>1237</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="30"/>
@@ -48131,20 +48130,20 @@
     </row>
     <row r="20" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>1238</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>1239</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="39"/>
@@ -48398,25 +48397,25 @@
     </row>
     <row r="21" spans="1:255" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>1240</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>1241</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>1242</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>1243</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="30"/>
@@ -48669,25 +48668,25 @@
     </row>
     <row r="22" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1244</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>1247</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>897</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>1248</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="30"/>
@@ -48940,16 +48939,16 @@
     </row>
     <row r="23" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -49208,13 +49207,13 @@
         <v>680</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -49470,19 +49469,19 @@
     </row>
     <row r="25" spans="1:255" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>1251</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>1252</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -49737,16 +49736,16 @@
     </row>
     <row r="26" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -50002,16 +50001,16 @@
     </row>
     <row r="27" spans="1:255" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -50267,23 +50266,23 @@
     </row>
     <row r="28" spans="1:255" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="30"/>
@@ -50536,16 +50535,16 @@
     </row>
     <row r="29" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>1257</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>1258</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -50827,25 +50826,25 @@
   <sheetData>
     <row r="1" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
@@ -51101,20 +51100,20 @@
         <v>293</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1260</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1261</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2" s="59"/>
       <c r="I2" s="60"/>
@@ -51367,22 +51366,22 @@
     </row>
     <row r="3" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1265</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="59"/>
@@ -51636,22 +51635,22 @@
     </row>
     <row r="4" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1266</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>1267</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>1268</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="59"/>

--- a/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C22F7-AAA5-4FFC-A6DD-A689EAFF5290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9D0FE3-F840-4419-9E39-8A3372A13E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -3752,9 +3752,6 @@
     <t>Confirm id-PIV-cardAuth exists in extendedKeyUsage extension and does not assert any other OIDs</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.7</t>
-  </si>
-  <si>
     <t>Card Auth id-PIV-cardAuth EKU keyPurposeID OID</t>
   </si>
   <si>
@@ -3831,6 +3828,9 @@
   </si>
   <si>
     <t>CAT:SLEEPY, DOG:HUNGRY, ELEPHANT:SAD</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
   </si>
 </sst>
 </file>
@@ -43025,8 +43025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IU29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -48409,13 +48409,13 @@
         <v>1240</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1241</v>
+        <v>1267</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>880</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="30"/>
@@ -48668,25 +48668,25 @@
     </row>
     <row r="22" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>1193</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>1244</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>1245</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>1246</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>896</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="30"/>
@@ -48945,7 +48945,7 @@
         <v>1193</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>706</v>
@@ -49210,7 +49210,7 @@
         <v>1193</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>711</v>
@@ -49475,13 +49475,13 @@
         <v>1193</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>700</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -49742,7 +49742,7 @@
         <v>1193</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>713</v>
@@ -50007,7 +50007,7 @@
         <v>1193</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>851</v>
@@ -50272,7 +50272,7 @@
         <v>1193</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>686</v>
@@ -50282,7 +50282,7 @@
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="30"/>
@@ -50541,10 +50541,10 @@
         <v>1193</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>1256</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>1257</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -51100,20 +51100,20 @@
         <v>293</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1259</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1260</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
         <v>880</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2" s="59"/>
       <c r="I2" s="60"/>
@@ -51366,19 +51366,19 @@
     </row>
     <row r="3" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>1263</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1264</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>896</v>
@@ -51635,19 +51635,19 @@
     </row>
     <row r="4" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>1266</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>1267</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>896</v>

--- a/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9D0FE3-F840-4419-9E39-8A3372A13E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCD465C-7A8F-4E05-851A-B9A9FDDF4614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="12" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1269">
   <si>
     <t>Document</t>
   </si>
@@ -3831,6 +3831,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
+  </si>
+  <si>
+    <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
   </si>
 </sst>
 </file>
@@ -5610,8 +5613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV473"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="C362" sqref="C362"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10893,7 +10896,7 @@
         <v>594</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>566</v>
+        <v>1268</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>530</v>
@@ -43025,7 +43028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IU29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C25" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD13DA-D03C-4375-8764-32E67D262AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13042A97-A9D8-41C2-AAA4-13A624202DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1273">
   <si>
     <t>Document</t>
   </si>
@@ -3843,6 +3843,9 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.1,CARDHOLDER_FINGERPRINTS_OID:2.16.840.1.101.3.6.2,CARDHOLDER_FACIAL_IMAGE_OID:2.16.840.1.101.3.6.2,CARDHOLDER_IRIS_IMAGES_OID:2.16.840</t>
   </si>
 </sst>
 </file>
@@ -14052,7 +14055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IU56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -42406,7 +42409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -42532,7 +42537,9 @@
       <c r="D6" s="6" t="s">
         <v>1124</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>1272</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>879</v>
       </c>

--- a/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF73DB07-BC07-446F-A233-7B518801C9CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFAC0E9-E939-4870-94F4-DD5C8C1FE4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="20112" windowHeight="12948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20112" windowHeight="12948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -3470,9 +3470,6 @@
     <t>Confirm that one of appropriate directly-asserted certificate policy OID is found in certificate policies in specified certificate</t>
   </si>
   <si>
-    <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.114027.200.3.10.7.13,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.114027.200.3.10.7.9,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID:2.16.840.1.114027.200.3.10.7.2|2.16.840.1.114027.200.3.10.7.6,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:2.16.840.1.114027.200.3.10.7.2|2.16.840.1.114027.200.3.10.7.6,X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:2.16.840.1.114027.200.3.10.7.4|2.16.840.1.114027.200.3.10.7.6|2.16.840.1.114027.200.3.10.7.2,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:1.3.6.1.4.1.45606.3.1.21</t>
-  </si>
-  <si>
     <t>These policies would only work for directly-asserted OIDs.  PIV-I are normally mapped.  Use the Override feature to configure PCI OIDs.</t>
   </si>
   <si>
@@ -3873,6 +3870,9 @@
   </si>
   <si>
     <t>gov.gsa.pivconformance.conformancelib.tests.PlaceholderTests</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.114027.200.3.10.7.13,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID:2.16.840.1.114027.200.3.10.7.2|2.16.840.1.114027.200.3.10.7.6,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:2.16.840.1.114027.200.3.10.7.2|2.16.840.1.114027.200.3.10.7.6,X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:2.16.840.1.114027.200.3.10.7.4|2.16.840.1.114027.200.3.10.7.6|2.16.840.1.114027.200.3.10.7.2,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.114027.200.3.10.7.9</t>
   </si>
 </sst>
 </file>
@@ -6181,7 +6181,7 @@
         <v>81</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>86</v>
@@ -6304,10 +6304,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>69</v>
@@ -6343,7 +6343,7 @@
         <v>107</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D40" s="51" t="s">
         <v>108</v>
@@ -6412,10 +6412,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="51" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C44" s="50" t="s">
         <v>1219</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>1220</v>
       </c>
       <c r="D44" s="50"/>
       <c r="E44" s="50"/>
@@ -6720,7 +6720,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C62" s="51" t="s">
         <v>147</v>
@@ -6738,7 +6738,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C63" s="51" t="s">
         <v>116</v>
@@ -6895,7 +6895,7 @@
         <v>162</v>
       </c>
       <c r="C72" s="52" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D72" s="52" t="s">
         <v>164</v>
@@ -6913,7 +6913,7 @@
         <v>165</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D73" s="52" t="s">
         <v>166</v>
@@ -7154,7 +7154,7 @@
         <v>114</v>
       </c>
       <c r="B87" s="51" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C87" s="51" t="s">
         <v>116</v>
@@ -7796,7 +7796,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="51" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C124" s="50" t="s">
         <v>236</v>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="E149" s="51"/>
       <c r="F149" s="51" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="E150" s="51"/>
       <c r="F150" s="51" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="E151" s="51"/>
       <c r="F151" s="51" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -8304,7 +8304,7 @@
         <v>6</v>
       </c>
       <c r="B154" s="54" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C154" s="53" t="s">
         <v>298</v>
@@ -8332,7 +8332,7 @@
         <v>6</v>
       </c>
       <c r="B156" s="51" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C156" s="50" t="s">
         <v>301</v>
@@ -8644,10 +8644,10 @@
         <v>6</v>
       </c>
       <c r="B174" s="51" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C174" s="51" t="s">
         <v>1232</v>
-      </c>
-      <c r="C174" s="51" t="s">
-        <v>1233</v>
       </c>
       <c r="D174" s="51" t="s">
         <v>1049</v>
@@ -8680,7 +8680,7 @@
         <v>6</v>
       </c>
       <c r="B176" s="51" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C176" s="58" t="s">
         <v>338</v>
@@ -8711,7 +8711,7 @@
         <v>341</v>
       </c>
       <c r="C178" s="51" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D178" s="51">
         <v>76.099999999999994</v>
@@ -8747,7 +8747,7 @@
         <v>343</v>
       </c>
       <c r="C180" s="51" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D180" s="51" t="s">
         <v>934</v>
@@ -8974,10 +8974,10 @@
         <v>6</v>
       </c>
       <c r="B193" s="51" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C193" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D193" s="51" t="s">
         <v>1049</v>
@@ -9041,7 +9041,7 @@
         <v>365</v>
       </c>
       <c r="C197" s="51" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D197" s="51">
         <v>76.099999999999994</v>
@@ -9077,7 +9077,7 @@
         <v>368</v>
       </c>
       <c r="C199" s="51" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D199" s="51" t="s">
         <v>934</v>
@@ -9304,10 +9304,10 @@
         <v>6</v>
       </c>
       <c r="B212" s="51" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C212" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D212" s="51" t="s">
         <v>1049</v>
@@ -9340,7 +9340,7 @@
         <v>6</v>
       </c>
       <c r="B214" s="51" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C214" s="58" t="s">
         <v>388</v>
@@ -10126,7 +10126,7 @@
         <v>6</v>
       </c>
       <c r="B260" s="51" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C260" s="50" t="s">
         <v>48</v>
@@ -10211,7 +10211,7 @@
         <v>488</v>
       </c>
       <c r="C265" s="59" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D265" s="51" t="s">
         <v>489</v>
@@ -10312,7 +10312,7 @@
         <v>6</v>
       </c>
       <c r="B271" s="51" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C271" s="59" t="s">
         <v>503</v>
@@ -10487,7 +10487,7 @@
         <v>525</v>
       </c>
       <c r="C281" s="59" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D281" s="51" t="s">
         <v>489</v>
@@ -10699,7 +10699,7 @@
         <v>548</v>
       </c>
       <c r="C293" s="51" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D293" s="51" t="s">
         <v>550</v>
@@ -10714,10 +10714,10 @@
         <v>6</v>
       </c>
       <c r="B294" s="51" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C294" s="59" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D294" s="51" t="s">
         <v>1122</v>
@@ -10817,7 +10817,7 @@
         <v>559</v>
       </c>
       <c r="C300" s="59" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D300" s="51" t="s">
         <v>489</v>
@@ -10904,7 +10904,7 @@
         <v>6</v>
       </c>
       <c r="B305" s="51" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C305" s="53" t="s">
         <v>534</v>
@@ -10957,7 +10957,7 @@
         <v>566</v>
       </c>
       <c r="C308" s="51" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D308" s="51" t="s">
         <v>507</v>
@@ -11044,10 +11044,10 @@
         <v>6</v>
       </c>
       <c r="B313" s="51" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C313" s="59" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D313" s="51" t="s">
         <v>1122</v>
@@ -11465,7 +11465,7 @@
         <v>593</v>
       </c>
       <c r="C323" s="51" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D323" s="51" t="s">
         <v>537</v>
@@ -11498,10 +11498,10 @@
         <v>6</v>
       </c>
       <c r="B325" s="51" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C325" s="51" t="s">
         <v>1210</v>
-      </c>
-      <c r="C325" s="51" t="s">
-        <v>1211</v>
       </c>
       <c r="D325" s="51" t="s">
         <v>516</v>
@@ -11601,7 +11601,7 @@
         <v>602</v>
       </c>
       <c r="C331" s="51" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D331" s="51" t="s">
         <v>489</v>
@@ -11652,7 +11652,7 @@
         <v>6</v>
       </c>
       <c r="B334" s="51" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C334" s="51" t="s">
         <v>529</v>
@@ -11670,7 +11670,7 @@
         <v>6</v>
       </c>
       <c r="B335" s="51" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C335" s="51" t="s">
         <v>531</v>
@@ -11702,10 +11702,10 @@
         <v>6</v>
       </c>
       <c r="B337" s="51" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C337" s="51" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D337" s="51" t="s">
         <v>537</v>
@@ -11720,7 +11720,7 @@
         <v>6</v>
       </c>
       <c r="B338" s="51" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C338" s="51" t="s">
         <v>539</v>
@@ -11831,7 +11831,7 @@
         <v>611</v>
       </c>
       <c r="C344" s="59" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D344" s="51" t="s">
         <v>1122</v>
@@ -11860,7 +11860,7 @@
         <v>6</v>
       </c>
       <c r="B346" s="51" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C346" s="53" t="s">
         <v>614</v>
@@ -11956,7 +11956,7 @@
         <v>6</v>
       </c>
       <c r="B352" s="51" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C352" s="53" t="s">
         <v>690</v>
@@ -12006,7 +12006,7 @@
         <v>6</v>
       </c>
       <c r="B355" s="51" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C355" s="59" t="s">
         <v>629</v>
@@ -12024,7 +12024,7 @@
         <v>6</v>
       </c>
       <c r="B356" s="51" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C356" s="51" t="s">
         <v>632</v>
@@ -12368,7 +12368,7 @@
         <v>6</v>
       </c>
       <c r="B376" s="51" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C376" s="50" t="s">
         <v>681</v>
@@ -12514,7 +12514,7 @@
         <v>6</v>
       </c>
       <c r="B385" s="51" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C385" s="59" t="s">
         <v>730</v>
@@ -12758,7 +12758,7 @@
         <v>6</v>
       </c>
       <c r="B399" s="51" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C399" s="50" t="s">
         <v>715</v>
@@ -12886,7 +12886,7 @@
         <v>6</v>
       </c>
       <c r="B407" s="51" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C407" s="59" t="s">
         <v>726</v>
@@ -12904,7 +12904,7 @@
         <v>6</v>
       </c>
       <c r="B408" s="51" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C408" s="59" t="s">
         <v>728</v>
@@ -12922,7 +12922,7 @@
         <v>6</v>
       </c>
       <c r="B409" s="51" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C409" s="59" t="s">
         <v>730</v>
@@ -13148,7 +13148,7 @@
         <v>6</v>
       </c>
       <c r="B422" s="51" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C422" s="50" t="s">
         <v>745</v>
@@ -13652,7 +13652,7 @@
         <v>6</v>
       </c>
       <c r="B452" s="51" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C452" s="50" t="s">
         <v>789</v>
@@ -13708,7 +13708,7 @@
         <v>6</v>
       </c>
       <c r="B456" s="51" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C456" s="50" t="s">
         <v>794</v>
@@ -13750,7 +13750,7 @@
         <v>6</v>
       </c>
       <c r="B459" s="51" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C459" s="50" t="s">
         <v>798</v>
@@ -13896,7 +13896,7 @@
         <v>6</v>
       </c>
       <c r="B468" s="51" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C468" s="59" t="s">
         <v>757</v>
@@ -14206,7 +14206,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>835</v>
@@ -14225,7 +14225,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>838</v>
@@ -14244,7 +14244,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>839</v>
@@ -14263,7 +14263,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>840</v>
@@ -14282,7 +14282,7 @@
         <v>842</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>843</v>
@@ -14637,7 +14637,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>845</v>
@@ -14904,7 +14904,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>847</v>
@@ -15171,7 +15171,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>848</v>
@@ -15438,7 +15438,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>849</v>
@@ -15705,7 +15705,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>850</v>
@@ -15972,7 +15972,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>851</v>
@@ -16239,7 +16239,7 @@
         <v>853</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>854</v>
@@ -16506,7 +16506,7 @@
         <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>856</v>
@@ -16773,7 +16773,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>857</v>
@@ -17040,7 +17040,7 @@
         <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>858</v>
@@ -17307,7 +17307,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>859</v>
@@ -17574,13 +17574,13 @@
         <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>860</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
@@ -17841,7 +17841,7 @@
         <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>861</v>
@@ -18108,7 +18108,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>863</v>
@@ -18375,7 +18375,7 @@
         <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>864</v>
@@ -18642,16 +18642,16 @@
         <v>108</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>865</v>
       </c>
       <c r="D17" s="42" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>1212</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>1213</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>837</v>
@@ -18911,7 +18911,7 @@
         <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>866</v>
@@ -19178,7 +19178,7 @@
         <v>867</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>868</v>
@@ -19445,7 +19445,7 @@
         <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>870</v>
@@ -19712,7 +19712,7 @@
         <v>131</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>871</v>
@@ -19979,7 +19979,7 @@
         <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>872</v>
@@ -20246,7 +20246,7 @@
         <v>137</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>873</v>
@@ -20513,7 +20513,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>874</v>
@@ -20780,7 +20780,7 @@
         <v>113</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>875</v>
@@ -21047,7 +21047,7 @@
         <v>187</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>876</v>
@@ -21314,7 +21314,7 @@
         <v>190</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>878</v>
@@ -21581,7 +21581,7 @@
         <v>159</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>879</v>
@@ -21848,7 +21848,7 @@
         <v>161</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>880</v>
@@ -22115,7 +22115,7 @@
         <v>168</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>882</v>
@@ -22382,7 +22382,7 @@
         <v>170</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>884</v>
@@ -22649,7 +22649,7 @@
         <v>172</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>886</v>
@@ -22916,7 +22916,7 @@
         <v>184</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>888</v>
@@ -23183,7 +23183,7 @@
         <v>245</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>890</v>
@@ -23450,7 +23450,7 @@
         <v>248</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>891</v>
@@ -23717,7 +23717,7 @@
         <v>254</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>893</v>
@@ -23984,7 +23984,7 @@
         <v>257</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>894</v>
@@ -24253,7 +24253,7 @@
         <v>576</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>896</v>
@@ -24520,7 +24520,7 @@
         <v>283</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>897</v>
@@ -24787,7 +24787,7 @@
         <v>268</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>898</v>
@@ -25054,7 +25054,7 @@
         <v>271</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>900</v>
@@ -25321,7 +25321,7 @@
         <v>280</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>902</v>
@@ -25588,7 +25588,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>904</v>
@@ -25855,7 +25855,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>906</v>
@@ -26122,7 +26122,7 @@
         <v>74</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>908</v>
@@ -26389,7 +26389,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>910</v>
@@ -26656,7 +26656,7 @@
         <v>80</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>912</v>
@@ -26923,7 +26923,7 @@
         <v>89</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>914</v>
@@ -27190,7 +27190,7 @@
         <v>92</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>916</v>
@@ -27457,7 +27457,7 @@
         <v>95</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>918</v>
@@ -27724,7 +27724,7 @@
         <v>98</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>920</v>
@@ -27991,7 +27991,7 @@
         <v>164</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>922</v>
@@ -28258,7 +28258,7 @@
         <v>166</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>923</v>
@@ -28525,7 +28525,7 @@
         <v>251</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>925</v>
@@ -28792,7 +28792,7 @@
         <v>274</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>927</v>
@@ -29059,7 +29059,7 @@
         <v>125</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>928</v>
@@ -29624,7 +29624,7 @@
         <v>930</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>931</v>
@@ -29891,7 +29891,7 @@
         <v>932</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>933</v>
@@ -30158,7 +30158,7 @@
         <v>934</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>935</v>
@@ -30425,7 +30425,7 @@
         <v>936</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>937</v>
@@ -30692,7 +30692,7 @@
         <v>938</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>939</v>
@@ -30959,7 +30959,7 @@
         <v>941</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>942</v>
@@ -31226,7 +31226,7 @@
         <v>944</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>945</v>
@@ -31493,7 +31493,7 @@
         <v>947</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>948</v>
@@ -31760,7 +31760,7 @@
         <v>950</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>951</v>
@@ -32027,7 +32027,7 @@
         <v>952</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>953</v>
@@ -32294,7 +32294,7 @@
         <v>954</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>955</v>
@@ -32561,7 +32561,7 @@
         <v>957</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>958</v>
@@ -32828,7 +32828,7 @@
         <v>959</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>960</v>
@@ -33095,7 +33095,7 @@
         <v>961</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>962</v>
@@ -33362,7 +33362,7 @@
         <v>963</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>964</v>
@@ -33629,7 +33629,7 @@
         <v>965</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>966</v>
@@ -33896,7 +33896,7 @@
         <v>968</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>969</v>
@@ -34163,7 +34163,7 @@
         <v>970</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>971</v>
@@ -34430,7 +34430,7 @@
         <v>972</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>973</v>
@@ -34697,7 +34697,7 @@
         <v>974</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>975</v>
@@ -34964,7 +34964,7 @@
         <v>977</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>978</v>
@@ -35231,7 +35231,7 @@
         <v>979</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>980</v>
@@ -35498,7 +35498,7 @@
         <v>981</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>982</v>
@@ -35765,7 +35765,7 @@
         <v>983</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>984</v>
@@ -36032,7 +36032,7 @@
         <v>986</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>987</v>
@@ -36299,7 +36299,7 @@
         <v>988</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>989</v>
@@ -36566,7 +36566,7 @@
         <v>991</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>992</v>
@@ -36833,7 +36833,7 @@
         <v>993</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>994</v>
@@ -37100,7 +37100,7 @@
         <v>995</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>996</v>
@@ -37367,7 +37367,7 @@
         <v>997</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>998</v>
@@ -37634,7 +37634,7 @@
         <v>1000</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>1001</v>
@@ -37901,7 +37901,7 @@
         <v>1003</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1004</v>
@@ -38168,7 +38168,7 @@
         <v>1006</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1007</v>
@@ -38435,7 +38435,7 @@
         <v>1009</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1010</v>
@@ -38702,7 +38702,7 @@
         <v>1012</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>1013</v>
@@ -38969,7 +38969,7 @@
         <v>1015</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1016</v>
@@ -39236,7 +39236,7 @@
         <v>1018</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1019</v>
@@ -39503,7 +39503,7 @@
         <v>1021</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1022</v>
@@ -39770,7 +39770,7 @@
         <v>1024</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1025</v>
@@ -40037,7 +40037,7 @@
         <v>1028</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1029</v>
@@ -40302,7 +40302,7 @@
         <v>1031</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1032</v>
@@ -40567,7 +40567,7 @@
         <v>1034</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>1035</v>
@@ -40834,7 +40834,7 @@
         <v>1038</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1039</v>
@@ -41101,7 +41101,7 @@
         <v>1042</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1043</v>
@@ -41368,7 +41368,7 @@
         <v>1046</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>1047</v>
@@ -41633,7 +41633,7 @@
         <v>1049</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1050</v>
@@ -41898,7 +41898,7 @@
         <v>1052</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1053</v>
@@ -42163,7 +42163,7 @@
         <v>1055</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1056</v>
@@ -42428,7 +42428,7 @@
         <v>1058</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1059</v>
@@ -42745,7 +42745,7 @@
         <v>481</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1061</v>
@@ -42764,7 +42764,7 @@
         <v>484</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1063</v>
@@ -42783,7 +42783,7 @@
         <v>487</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1065</v>
@@ -42802,7 +42802,7 @@
         <v>501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1067</v>
@@ -42821,7 +42821,7 @@
         <v>489</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1069</v>
@@ -42830,7 +42830,7 @@
         <v>1070</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>837</v>
@@ -42842,7 +42842,7 @@
         <v>492</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1071</v>
@@ -42861,7 +42861,7 @@
         <v>495</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1073</v>
@@ -42880,7 +42880,7 @@
         <v>498</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1075</v>
@@ -42899,7 +42899,7 @@
         <v>532</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1077</v>
@@ -42918,7 +42918,7 @@
         <v>580</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>1079</v>
@@ -42937,7 +42937,7 @@
         <v>507</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1080</v>
@@ -42956,7 +42956,7 @@
         <v>510</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1082</v>
@@ -42975,7 +42975,7 @@
         <v>513</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1084</v>
@@ -42994,7 +42994,7 @@
         <v>516</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1086</v>
@@ -43013,7 +43013,7 @@
         <v>550</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1087</v>
@@ -43036,7 +43036,7 @@
         <v>551</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1091</v>
@@ -43059,7 +43059,7 @@
         <v>583</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1095</v>
@@ -43078,7 +43078,7 @@
         <v>586</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1096</v>
@@ -43097,7 +43097,7 @@
         <v>589</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1097</v>
@@ -43116,7 +43116,7 @@
         <v>592</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1099</v>
@@ -43135,7 +43135,7 @@
         <v>1101</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1102</v>
@@ -43154,7 +43154,7 @@
         <v>537</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1104</v>
@@ -43171,7 +43171,7 @@
         <v>1105</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>1106</v>
@@ -43188,7 +43188,7 @@
         <v>504</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>1108</v>
@@ -43205,7 +43205,7 @@
         <v>1110</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>1111</v>
@@ -43222,7 +43222,7 @@
         <v>1113</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>1114</v>
@@ -43239,7 +43239,7 @@
         <v>1116</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>1117</v>
@@ -43256,7 +43256,7 @@
         <v>1119</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>1120</v>
@@ -43273,7 +43273,7 @@
         <v>1122</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>1123</v>
@@ -43338,7 +43338,7 @@
         <v>1125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1126</v>
@@ -43357,7 +43357,7 @@
         <v>1128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1129</v>
@@ -43376,7 +43376,7 @@
         <v>1131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1132</v>
@@ -43457,9 +43457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IU29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="A11:XFD11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -43749,7 +43747,7 @@
         <v>1134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1135</v>
@@ -44016,7 +44014,7 @@
         <v>693</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1137</v>
@@ -44283,7 +44281,7 @@
         <v>627</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1139</v>
@@ -44550,7 +44548,7 @@
         <v>630</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1141</v>
@@ -44817,7 +44815,7 @@
         <v>633</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1143</v>
@@ -45084,7 +45082,7 @@
         <v>635</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1145</v>
@@ -45093,13 +45091,13 @@
         <v>1146</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1147</v>
+        <v>1281</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>837</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="7"/>
@@ -45355,13 +45353,13 @@
         <v>640</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1150</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
@@ -45622,13 +45620,13 @@
         <v>643</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1152</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -45889,13 +45887,13 @@
         <v>664</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1154</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
@@ -46153,16 +46151,16 @@
     </row>
     <row r="11" spans="1:255" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1157</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -46423,10 +46421,10 @@
         <v>648</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>698</v>
@@ -46687,16 +46685,16 @@
     </row>
     <row r="13" spans="1:255" ht="31.5" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="1" t="s">
@@ -46957,20 +46955,20 @@
         <v>656</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1163</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>837</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="7"/>
@@ -47226,13 +47224,13 @@
         <v>659</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>1165</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1166</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
@@ -47493,13 +47491,13 @@
         <v>696</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>1167</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1168</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
@@ -47760,13 +47758,13 @@
         <v>727</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>1169</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1170</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -48027,13 +48025,13 @@
         <v>729</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>1171</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1172</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
@@ -48291,25 +48289,25 @@
     </row>
     <row r="19" spans="1:255" ht="31.5" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1176</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>837</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="7"/>
@@ -48565,13 +48563,13 @@
         <v>764</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
@@ -48832,22 +48830,22 @@
         <v>767</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>1181</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>837</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="7"/>
@@ -49100,25 +49098,25 @@
     </row>
     <row r="22" spans="1:255" ht="31.5" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>1185</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1186</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>852</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="7"/>
@@ -49374,10 +49372,10 @@
         <v>673</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>672</v>
@@ -49639,10 +49637,10 @@
         <v>646</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>677</v>
@@ -49904,16 +49902,16 @@
         <v>667</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>666</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -50171,10 +50169,10 @@
         <v>680</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>679</v>
@@ -50436,10 +50434,10 @@
         <v>810</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>809</v>
@@ -50701,10 +50699,10 @@
         <v>653</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>652</v>
@@ -50714,7 +50712,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="7"/>
@@ -50970,13 +50968,13 @@
         <v>781</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -51532,20 +51530,20 @@
         <v>277</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1199</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>837</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
@@ -51798,19 +51796,19 @@
     </row>
     <row r="3" spans="1:255" ht="31.5" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1202</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1203</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>852</v>
@@ -52067,19 +52065,19 @@
     </row>
     <row r="4" spans="1:255" ht="31.5" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1206</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>852</v>

--- a/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_XTec_First_Data_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFAC0E9-E939-4870-94F4-DD5C8C1FE4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C48EA-4A69-4BB4-BA0A-375DFE7EB861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20112" windowHeight="12948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1452" windowWidth="22920" windowHeight="12948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -5637,7 +5637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A343" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F470" sqref="F470"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
@@ -11980,7 +11982,7 @@
       </c>
       <c r="E353" s="59"/>
       <c r="F353" s="51" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -12524,7 +12526,7 @@
       </c>
       <c r="E385" s="59"/>
       <c r="F385" s="51" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="30">
@@ -12878,7 +12880,7 @@
       </c>
       <c r="E406" s="59"/>
       <c r="F406" s="51" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="30">
@@ -13870,7 +13872,7 @@
       </c>
       <c r="E466" s="51"/>
       <c r="F466" s="51" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
     </row>
     <row r="467" spans="1:6">
